--- a/src/main/resources/datas/TestData.xlsx
+++ b/src/main/resources/datas/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7130"/>
+    <workbookView windowHeight="17940"/>
   </bookViews>
   <sheets>
     <sheet name="126mail" sheetId="5" r:id="rId1"/>
@@ -88,9 +88,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -118,43 +118,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,6 +161,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -185,6 +178,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,6 +216,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -230,24 +239,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,19 +262,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -286,13 +358,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -304,145 +412,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,6 +453,32 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -471,17 +497,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,51 +549,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,10 +561,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -573,133 +573,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1038,18 +1038,18 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F2"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="29.2727272727273" customWidth="1"/>
-    <col min="2" max="2" width="16.3636363636364" customWidth="1"/>
-    <col min="3" max="3" width="11.9090909090909" customWidth="1"/>
-    <col min="4" max="4" width="23.8181818181818" customWidth="1"/>
-    <col min="5" max="6" width="12.2727272727273" customWidth="1"/>
-    <col min="7" max="7" width="17.5454545454545" customWidth="1"/>
-    <col min="8" max="8" width="24.2727272727273" customWidth="1"/>
+    <col min="1" max="1" width="29.275" customWidth="1"/>
+    <col min="2" max="2" width="16.3666666666667" customWidth="1"/>
+    <col min="3" max="3" width="11.9083333333333" customWidth="1"/>
+    <col min="4" max="4" width="23.8166666666667" customWidth="1"/>
+    <col min="5" max="6" width="12.275" customWidth="1"/>
+    <col min="7" max="7" width="17.5416666666667" customWidth="1"/>
+    <col min="8" max="8" width="24.275" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1116,16 +1116,16 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A1" sqref="$A1:$XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="29.4545454545455" customWidth="1"/>
-    <col min="2" max="2" width="21.7272727272727" customWidth="1"/>
-    <col min="3" max="3" width="16.3636363636364" customWidth="1"/>
-    <col min="6" max="6" width="34.5454545454545" customWidth="1"/>
-    <col min="7" max="7" width="35.5454545454545" customWidth="1"/>
+    <col min="1" max="1" width="29.4583333333333" customWidth="1"/>
+    <col min="2" max="2" width="21.725" customWidth="1"/>
+    <col min="3" max="3" width="16.3666666666667" customWidth="1"/>
+    <col min="6" max="6" width="34.5416666666667" customWidth="1"/>
+    <col min="7" max="7" width="35.5416666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">

--- a/src/main/resources/datas/TestData.xlsx
+++ b/src/main/resources/datas/TestData.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="26">
   <si>
     <t>地址url</t>
   </si>
@@ -44,13 +44,10 @@
     <t>https://www.126.com/</t>
   </si>
   <si>
-    <t>T18969076410</t>
-  </si>
-  <si>
     <t>Test1234</t>
   </si>
   <si>
-    <t>m18709229141@163.com</t>
+    <t>1312426844@qq.com</t>
   </si>
   <si>
     <t>测试</t>
@@ -65,22 +62,37 @@
     <t>邮件发送成功</t>
   </si>
   <si>
+    <t>https://mail.sina.com.cn/</t>
+  </si>
+  <si>
+    <t>ren1312426844</t>
+  </si>
+  <si>
+    <t>新浪邮箱</t>
+  </si>
+  <si>
+    <t>您的邮件已发送</t>
+  </si>
+  <si>
+    <t>https://mail.163.com/</t>
+  </si>
+  <si>
+    <t>ces2</t>
+  </si>
+  <si>
+    <t>E:\\FileTest.xlsx</t>
+  </si>
+  <si>
+    <t>163邮箱</t>
+  </si>
+  <si>
+    <t>https://mail.qq.com/</t>
+  </si>
+  <si>
+    <t>QQ邮箱</t>
+  </si>
+  <si>
     <t>断言图片</t>
-  </si>
-  <si>
-    <t>https://mail.sina.com.cn/</t>
-  </si>
-  <si>
-    <t>ren1312426844</t>
-  </si>
-  <si>
-    <t>1312426844@qq.com</t>
-  </si>
-  <si>
-    <t>新浪邮箱</t>
-  </si>
-  <si>
-    <t>您的邮件已发送</t>
   </si>
 </sst>
 </file>
@@ -88,10 +100,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -118,12 +130,34 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -131,8 +165,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -140,36 +175,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -178,14 +183,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,14 +213,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -231,23 +220,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,25 +274,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -292,13 +430,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,139 +454,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,8 +512,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,7 +537,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,15 +565,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -561,10 +573,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -573,16 +585,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -594,10 +606,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -606,104 +621,101 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -714,6 +726,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1035,20 +1059,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="29.275" customWidth="1"/>
     <col min="2" max="2" width="16.3666666666667" customWidth="1"/>
-    <col min="3" max="3" width="11.9083333333333" customWidth="1"/>
+    <col min="3" max="3" width="20.25" customWidth="1"/>
     <col min="4" max="4" width="23.8166666666667" customWidth="1"/>
     <col min="5" max="6" width="12.275" customWidth="1"/>
-    <col min="7" max="7" width="17.5416666666667" customWidth="1"/>
+    <col min="7" max="7" width="26.25" customWidth="1"/>
     <col min="8" max="8" width="24.275" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1082,29 +1106,114 @@
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4">
+        <v>18709229141</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
         <v>15</v>
+      </c>
+      <c r="B3" s="4">
+        <v>18709229141</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:8">
+      <c r="A4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="6">
+        <v>18709229141</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:8">
+      <c r="A5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="6">
+        <v>1312426844</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" display="1312426844@qq.com"/>
+    <hyperlink ref="D4" r:id="rId1" display="1312426844@qq.com"/>
+    <hyperlink ref="A5" r:id="rId2" display="https://mail.qq.com/"/>
+    <hyperlink ref="D5" r:id="rId1" display="1312426844@qq.com"/>
+    <hyperlink ref="D2" r:id="rId1" display="1312426844@qq.com"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1116,14 +1225,15 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD2"/>
+      <selection activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="29.4583333333333" customWidth="1"/>
-    <col min="2" max="2" width="21.725" customWidth="1"/>
+    <col min="2" max="2" width="17.75" customWidth="1"/>
     <col min="3" max="3" width="16.3666666666667" customWidth="1"/>
+    <col min="4" max="4" width="20.375" customWidth="1"/>
     <col min="6" max="6" width="34.5416666666667" customWidth="1"/>
     <col min="7" max="7" width="35.5416666666667" customWidth="1"/>
   </cols>
@@ -1148,7 +1258,7 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -1156,28 +1266,28 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>18709229141</v>
       </c>
       <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
         <v>18</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/datas/TestData.xlsx
+++ b/src/main/resources/datas/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940"/>
+    <workbookView windowHeight="17940" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="126mail" sheetId="5" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
   <si>
     <t>地址url</t>
   </si>
@@ -44,6 +44,9 @@
     <t>https://www.126.com/</t>
   </si>
   <si>
+    <t>T18969076410</t>
+  </si>
+  <si>
     <t>Test1234</t>
   </si>
   <si>
@@ -62,37 +65,19 @@
     <t>邮件发送成功</t>
   </si>
   <si>
+    <t>断言图片</t>
+  </si>
+  <si>
     <t>https://mail.sina.com.cn/</t>
   </si>
   <si>
-    <t>ren1312426844</t>
+    <t>T18969076410@sina.com</t>
   </si>
   <si>
     <t>新浪邮箱</t>
   </si>
   <si>
     <t>您的邮件已发送</t>
-  </si>
-  <si>
-    <t>https://mail.163.com/</t>
-  </si>
-  <si>
-    <t>ces2</t>
-  </si>
-  <si>
-    <t>E:\\FileTest.xlsx</t>
-  </si>
-  <si>
-    <t>163邮箱</t>
-  </si>
-  <si>
-    <t>https://mail.qq.com/</t>
-  </si>
-  <si>
-    <t>QQ邮箱</t>
-  </si>
-  <si>
-    <t>断言图片</t>
   </si>
 </sst>
 </file>
@@ -100,10 +85,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -130,6 +115,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -145,12 +144,42 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -158,13 +187,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -173,16 +195,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,14 +211,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -220,15 +227,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -237,29 +245,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,19 +259,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -298,97 +313,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,61 +439,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,6 +468,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -490,6 +490,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -536,32 +545,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -573,10 +558,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -585,16 +570,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -603,119 +588,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -725,13 +710,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1059,13 +1041,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="29.275" customWidth="1"/>
     <col min="2" max="2" width="16.3666666666667" customWidth="1"/>
@@ -1103,115 +1085,33 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4">
-        <v>18709229141</v>
+      <c r="B2" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="5" t="s">
         <v>10</v>
       </c>
+      <c r="D2" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="B3" s="4">
-        <v>18709229141</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" customFormat="1" spans="1:8">
-      <c r="A4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="6">
-        <v>18709229141</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" customFormat="1" spans="1:8">
-      <c r="A5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="6">
-        <v>1312426844</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" display="1312426844@qq.com"/>
-    <hyperlink ref="D4" r:id="rId1" display="1312426844@qq.com"/>
-    <hyperlink ref="A5" r:id="rId2" display="https://mail.qq.com/"/>
-    <hyperlink ref="D5" r:id="rId1" display="1312426844@qq.com"/>
     <hyperlink ref="D2" r:id="rId1" display="1312426844@qq.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1224,14 +1124,14 @@
   <sheetPr/>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="29.4583333333333" customWidth="1"/>
-    <col min="2" max="2" width="17.75" customWidth="1"/>
+    <col min="2" max="2" width="32.75" customWidth="1"/>
     <col min="3" max="3" width="16.3666666666667" customWidth="1"/>
     <col min="4" max="4" width="20.375" customWidth="1"/>
     <col min="6" max="6" width="34.5416666666667" customWidth="1"/>
@@ -1258,7 +1158,7 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -1266,33 +1166,34 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2">
-        <v>18709229141</v>
+        <v>17</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="1312426844@qq.com"/>
+    <hyperlink ref="B2" r:id="rId2" display="T18969076410@sina.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
